--- a/public/assets/upload/skills.xlsx
+++ b/public/assets/upload/skills.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="96">
   <si>
     <t xml:space="preserve">Направление</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t xml:space="preserve">MVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swoole</t>
   </si>
   <si>
     <t xml:space="preserve">Маршрутизация</t>
@@ -319,6 +322,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -396,15 +400,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -425,10 +429,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -906,19 +910,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="1" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
         <v>66</v>
       </c>
@@ -936,28 +939,28 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="1" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
+      <c r="C70" s="1" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" s="1" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>99</v>
@@ -966,67 +969,68 @@
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>99</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2"/>
       <c r="B74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="1" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
+      <c r="C75" s="1" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C76" s="1" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>70</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>99</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C79" s="1" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
+      <c r="C80" s="1" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C81" s="1" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="1" t="s">
         <v>71</v>
       </c>
@@ -1103,7 +1107,7 @@
         <v>80</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1122,23 +1126,23 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="s">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C94" s="1" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C95" s="1" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1146,7 +1150,7 @@
         <v>86</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1154,23 +1158,23 @@
         <v>87</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>70</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1178,7 +1182,7 @@
         <v>89</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,7 +1190,7 @@
         <v>90</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1194,7 +1198,7 @@
         <v>91</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1202,7 +1206,7 @@
         <v>92</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,6 +1222,14 @@
         <v>94</v>
       </c>
       <c r="C106" s="1" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C107" s="1" t="n">
         <v>99</v>
       </c>
     </row>
